--- a/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.59</t>
+    <t>urn:oid:1.2.250.1.213.3.4.59</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>Niveau 3 - Excellence</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Unité de réanimation pédiatrique de recours</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R344-NiveauExpertise/FHIR/TRE-R344-NiveauExpertise</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,18 +772,26 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>78</v>
+      <c r="B24" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -121,9 +127,6 @@
     <t>Maternité de type 3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -235,25 +238,73 @@
     <t>27</t>
   </si>
   <si>
-    <t>Niveau 1 - Proximité</t>
+    <t>Premier niveau de recours</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Niveau 2 - Recours</t>
+    <t>Deuxième niveau de recours</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Niveau 3 - Excellence</t>
+    <t>Troisième niveau de recours</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
     <t>Unité de réanimation pédiatrique de recours</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Filière endométriose - premier niveau de recours</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Filière endométriose - deuxième niveau de recours</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Filière endométriose - troisième niveau de recours</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Centre labellisé Covid-Long</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de recours labellisé</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Centre de réhabilitation psychosociale - Centre de proximité labellisé</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de territoire</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Unité neuro-vasculaire (UNV) de recours</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R344-NiveauExpertise/FHIR/TRE-R344-NiveauExpertise</t>
@@ -390,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -496,20 +547,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -531,58 +590,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,194 +663,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,60 +73,57 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Niveau de ressources humaines et matérielles utiles pour la réalisation de l'offre</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Maternité de type 1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Maternité de type 2A</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Maternité de type 2B</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Maternité de type 3</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Niveau de ressources humaines et matérielles utiles pour la réalisation de l'offre</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Maternité de type 1</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Maternité de type 2A</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Maternité de type 2B</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Maternité de type 3</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -238,73 +235,25 @@
     <t>27</t>
   </si>
   <si>
-    <t>Premier niveau de recours</t>
+    <t>Niveau 1 - Proximité</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>Deuxième niveau de recours</t>
+    <t>Niveau 2 - Recours</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>Troisième niveau de recours</t>
+    <t>Niveau 3 - Excellence</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
     <t>Unité de réanimation pédiatrique de recours</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Filière endométriose - premier niveau de recours</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Filière endométriose - deuxième niveau de recours</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Filière endométriose - troisième niveau de recours</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Centre labellisé Covid-Long</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Centre de réhabilitation psychosociale - Centre de recours labellisé</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Centre de réhabilitation psychosociale - Centre de proximité labellisé</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Unité neuro-vasculaire (UNV) de territoire</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Unité neuro-vasculaire (UNV) de recours</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R344-NiveauExpertise/FHIR/TRE-R344-NiveauExpertise</t>
@@ -441,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -547,28 +496,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -590,58 +531,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +592,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -663,258 +604,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -76,55 +76,52 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Niveau de ressources humaines et matérielles utiles pour la réalisation de l'offre</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Maternité de type 1</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Maternité de type 2A</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Maternité de type 2B</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Maternité de type 3</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Niveau de ressources humaines et matérielles utiles pour la réalisation de l'offre</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Maternité de type 1</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Maternité de type 2A</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Maternité de type 2B</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Maternité de type 3</t>
   </si>
   <si>
     <t>System URI</t>
@@ -441,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -547,28 +544,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -590,58 +579,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -663,258 +652,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>41</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J227-NiveauExpertise-ROR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -302,6 +302,30 @@
   </si>
   <si>
     <t>Unité neuro-vasculaire (UNV) de recours</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 1 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 2 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 Conventionné Centres Spécialisés Obésité (CSO)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Filière Obésité - Niveau 3 (Centre Spécialisé Obésité)</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R344-NiveauExpertise/FHIR/TRE-R344-NiveauExpertise</t>
@@ -640,7 +664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,18 +916,50 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>96</v>
+      <c r="B36" t="s" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
